--- a/app/data/db_perfumaria.xlsx
+++ b/app/data/db_perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>05/05/5000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_perfumaria.xlsx
+++ b/app/data/db_perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,57 @@
           <t>05/05/5000</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>

--- a/app/data/db_perfumaria.xlsx
+++ b/app/data/db_perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,68 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05/05/5000</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_perfumaria.xlsx
+++ b/app/data/db_perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09/08/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4004.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4004.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>996.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>124.88</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/db_perfumaria.xlsx
+++ b/app/data/db_perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,43 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4004.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4004.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>996.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>124.88</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
